--- a/JIRA/Planilha Sprint - Stand-By.xlsx
+++ b/JIRA/Planilha Sprint - Stand-By.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEROTTOMESQUITAGIOVA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC4EE1B-5C7E-4193-9776-8702C443B518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4FF47-512B-4259-97D5-5D789C3D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>Tipo</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>ensemble@thyssenkruppelevadores.com.br</t>
-  </si>
-  <si>
-    <t>Estrutura de armazenamento no SAP</t>
   </si>
   <si>
     <t>Análise</t>
@@ -224,18 +221,6 @@
   </si>
   <si>
     <t>REQ0299171</t>
-  </si>
-  <si>
-    <t>* Boa tarde,
-* Izabel / Fernando, conforme falado na reunião do Dossiê Técnico de 29/05/2024, precisamos de um novo campo na tabela ESTRUTURA;
-* Sugerimos ESTRUTURA.ite-desctexto label Desc. Texto (Dossiê), caractere com 40 posições;
-* A origem da informação é o TEXTO item do SAP oriundo inicialmente do ESALES - demonstração no arquivo anexo;
-* Mostrar na tela de manutenção e exibição de estrutura quando o item for OBRA;
-* Fica a cargo do projetista o preenchimento conforme padrão; ideal exigir o preenchimento;
-* Encaminhar em SDT auxiliar à equipe do SAP que as telas de manutenção de obra (CS72, etc) tenham o campo de origem TEXTO ITEM para ser preenchido, evitando manutenção posterior no AIT;
-* Dúvidas / detalhes favor nos contatar a qualquer tempo;
-* Atc.,
-* Rogério.</t>
   </si>
   <si>
     <t>SCTASK0433986</t>
@@ -310,6 +295,241 @@
   </si>
   <si>
     <t>ZINTERFACELOTE2</t>
+  </si>
+  <si>
+    <t>🧾 Requisito definido:
+Otimizar o código responsável pela confirmação de leitura na tabela ZInterfaceLote2 do SAP, reduzindo o tempo de processamento e melhorando a performance da transação.
+🧑‍💼 PO: 
+Giovani Perotto Mesquita
+📊 Priorização:
+Prioridade: Alta
+Justificativa: A lentidão atual impacta negativamente a experiência do usuário e pode gerar gargalos operacionais.
+Impacto: Melhora a eficiência operacional e libera recursos para outras atividades.
+Urgência: Problema recorrente já identificado pela equipe.
+Dependências: Análise do código atual e testes de performance após a otimização.
+🔍 Processo atual (AS IS):
+Quando é realizada a confirmação de leitura na tabela ZInterfaceLote2, a transação SAP apresenta lentidão devido à falta de otimização no código.
+🚀 Processo futuro (TO BE):
+Após a otimização, a confirmação de leitura será realizada de forma rápida e eficiente, sem atrasos perceptíveis para o usuário.
+🎯 Objetivo da mudança:
+Reduzir o tempo de confirmação de leitura, aumentando a produtividade e a satisfação dos usuários do SAP.
+✅ Critérios de aceitação (BDD):
+Dado que um usuário realiza a confirmação de leitura na ZInterfaceLote2,
+Quando a transação for executada,
+Então o tempo de processamento deve ser significativamente reduzido em relação ao cenário atual,
+E a confirmação deve ser registrada corretamente na tabela.
+🧪 Cenários de teste de validação:
+Executar a confirmação de leitura e medir o tempo de resposta, comprovando a melhoria de performance.
+Verificar se todas as confirmações são registradas corretamente após a otimização.
+Realizar testes de carga para garantir estabilidade sob múltiplas confirmações simultâneas.
+❌ Cenários de teste de rejeição:
+A confirmação de leitura continua lenta após a otimização.
+Confirmações não são registradas corretamente na tabela.
+O sistema apresenta erros ou falhas durante o processo de confirmação.</t>
+  </si>
+  <si>
+    <t>🧾 Requisito definido:
+Adaptar o layout da interface ZV48N para permitir o envio do campo que indica se o pedido realizado na loja WEB da TK é de Revenda ou Consumo.
+🧑‍💼 PO: 
+Ronaldo (SAP)
+📊 Priorização:
+Prioridade: Alta
+Justificativa: Permite diferenciar e tratar corretamente pedidos de Revenda e Consumo, alinhando o processo ao que já é suportado pela plataforma LINX e atendendo à solicitação do cliente.
+Impacto: Garante integridade e rastreabilidade dos pedidos, reduzindo erros operacionais.
+Urgência: Necessidade já identificada em reunião e validada com o fornecedor LINX.
+Dependências: Integração com SAP e validação do campo na interface.
+🔍 Processo atual (AS IS):
+Atualmente, a interface ZV48N não envia a informação se o pedido é de Revenda ou Consumo. Os pedidos realizados na loja WEB são tratados de forma genérica, sem distinção clara entre os dois tipos.
+🚀 Processo futuro (TO BE):
+A interface ZV48N será ajustada para enviar, junto com o pedido, o campo que indica se é Revenda ou Consumo. O SAP receberá e processará essa informação, permitindo o tratamento diferenciado dos pedidos conforme o tipo.
+🎯 Objetivo da mudança:
+Permitir que o SAP trate adequadamente os pedidos de Revenda e Consumo, garantindo que as regras de negócio específicas para cada tipo sejam aplicadas, aumentando a eficiência operacional e a satisfação do cliente.
+✅ Critérios de aceitação (BDD):
+Dado que um pedido é realizado na loja WEB,
+Quando o usuário selecionar o tipo de pedido (Revenda ou Consumo),
+Então a interface ZV48N deve enviar essa informação para o SAP,
+E o SAP deve registrar e processar o pedido conforme o tipo informado.
+🧪 Cenários de teste de validação:
+Realizar um pedido de Revenda na loja WEB e verificar se o campo correspondente é enviado e processado corretamente no SAP.
+Realizar um pedido de Consumo na loja WEB e verificar se o campo correspondente é enviado e processado corretamente no SAP.
+Consultar os logs da interface para garantir que o dado foi transmitido.
+❌ Cenários de teste de rejeição:
+Realizar um pedido sem selecionar o tipo (Revenda ou Consumo) e verificar se o sistema impede o envio ou retorna erro.
+Realizar um pedido e o campo não ser transmitido para o SAP, verificando se o sistema acusa falha ou inconsistência.
+O SAP processar um pedido com o tipo incorreto, gerando alerta ou rejeição.</t>
+  </si>
+  <si>
+    <t>🧾 Requisito definido:
+Adicionar um novo campo chamado "Desc. Texto (Dossiê)" (caractere, 40 posições) na tabela ESTRUTURA, com origem no campo TEXTO ITEM do SAP (proveniente do ESALES). O campo deve ser exibido e editável nas telas de manutenção e exibição de estrutura quando o item for do tipo OBRA. O preenchimento deve ser realizado pelo projetista, conforme padrão, e idealmente ser obrigatório.
+🧑‍💼 PO: 
+Izabel
+📊 Priorização:
+Prioridade: Alta
+Justificativa: Facilita o registro padronizado de informações relevantes para itens do tipo OBRA, reduz retrabalho e garante integridade dos dados.
+Impacto: Melhora a rastreabilidade e a qualidade das informações técnicas.
+Urgência: Alinhado à demanda discutida em reunião e solicitado pela equipe técnica.
+Dependências: Ajustes nas telas de manutenção (ex: CS72) e integração com SAP/ESALES.
+🔍 Processo atual (AS IS):
+Atualmente, não existe um campo específico para o registro do texto do dossiê na tabela ESTRUTURA. O preenchimento dessa informação pode ocorrer de forma manual e descentralizada, aumentando o risco de inconsistências e retrabalho posterior no AIT.
+🚀 Processo futuro (TO BE):
+Com a inclusão do novo campo, o projetista poderá registrar o texto do dossiê diretamente na tela de manutenção/exibição da estrutura, sempre que o item for OBRA. O campo será alimentado a partir do TEXTO ITEM do SAP/ESALES, padronizando o processo e evitando manutenções posteriores.
+🎯 Objetivo da mudança:
+Padronizar e centralizar o registro do texto do dossiê para itens do tipo OBRA, garantindo integridade, rastreabilidade e redução de retrabalho.
+✅ Critérios de aceitação (BDD):
+Dado que um projetista está cadastrando ou editando um item do tipo OBRA na estrutura,
+Quando acessar a tela de manutenção ou exibição,
+Então o campo "Desc. Texto (Dossiê)" deve estar disponível para preenchimento,
+E deve ser possível salvar o texto com até 40 caracteres,
+E o campo deve ser alimentado a partir do TEXTO ITEM do SAP/ESALES,
+E o preenchimento deve ser obrigatório conforme padrão definido.
+🧪 Cenários de teste de validação:
+Criar um item do tipo OBRA e preencher o campo "Desc. Texto (Dossiê)", verificando se o dado é salvo corretamente.
+Editar um item existente do tipo OBRA e atualizar o campo, garantindo a persistência da informação.
+Verificar se o campo é alimentado corretamente a partir do TEXTO ITEM do SAP/ESALES.
+Confirmar que o campo não aparece para itens que não sejam do tipo OBRA.
+❌ Cenários de teste de rejeição:
+Tentar salvar um item do tipo OBRA sem preencher o campo e verificar se o sistema impede o salvamento.
+Preencher o campo com mais de 40 caracteres e verificar se o sistema bloqueia ou retorna erro.
+Verificar se o campo aparece indevidamente para itens que não sejam do tipo OBRA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🧾 Requisito definido:
+Configurar uma interface automatizada para envio de arquivos do servidor SRVFLS01 para a biblioteca SharePoint “CONTRATO_CSC” (https://tke.sharepoint.com/sites/BRA-Filerep01/GUS/), sincronizando apenas arquivos novos a cada 5 minutos, sem mover os arquivos históricos existentes.
+🧑‍💼 PO: 
+Gabriel Prestes Pereira
+📊 Priorização:
+Prioridade: Alta
+Justificativa: Atende demanda do projeto CSC, garantindo agilidade e integridade na transferência de arquivos necessários para novos tickets no Service Now.
+Impacto: Reduz trabalho manual, evita erros e acelera o fluxo de atendimento.
+Urgência: Necessidade imediata para o andamento do projeto.
+Dependências: Configuração do agendamento, integração com Service Now e SharePoint.
+🔍 Processo atual (AS IS):
+Atualmente, a transferência de arquivos para o SharePoint é feita manualmente, utilizando uploads pontuais para testes do projeto. Não há sincronização automática entre o file server e a biblioteca do SharePoint.
+🚀 Processo futuro (TO BE):
+A interface será executada automaticamente a cada 5 minutos, sincronizando apenas arquivos novos do SRVFLS01 para a biblioteca “CONTRATO_CSC” no SharePoint, sem mover os arquivos históricos. O processo será transparente para os usuários e integrado ao fluxo de abertura de tickets no Service Now.
+🎯 Objetivo da mudança:
+Automatizar a transferência de arquivos relevantes para novos tickets, garantindo eficiência, rastreabilidade e redução de erros manuais no processo do CSC.
+✅ Critérios de aceitação (BDD):
+Dado que um novo arquivo é salvo no SRVFLS01,
+Quando a interface rodar no intervalo agendado,
+Então o arquivo deve ser transferido automaticamente para a biblioteca “CONTRATO_CSC” no SharePoint,
+E arquivos históricos não devem ser movidos,
+E o processo deve ocorrer sem intervenção manual.
+🧪 Cenários de teste de validação:
+Salvar um novo arquivo no SRVFLS01 e verificar se ele aparece na biblioteca do SharePoint após 5 minutos.
+Confirmar que arquivos antigos (anteriores à configuração) permanecem apenas no file server.
+Realizar upload manual para testes e garantir que a interface não interfere nesses arquivos.
+❌ Cenários de teste de rejeição:
+Arquivo novo não transferido para o SharePoint após o intervalo agendado.
+Arquivo histórico movido indevidamente para o SharePoint.
+Transferência duplicada do mesmo arquivo.
+</t>
+  </si>
+  <si>
+    <t>🧾 Requisito definido:
+Ajustar o layout das RFCs ZV30 e ZV31 para os tipos de Ordens ZVSP e ZVPS, incluindo os campos “Negociação” (8 dígitos, penúltima posição) e “Pedido” (8 dígitos, última posição) nas últimas posições da linha OC. Estes campos não são obrigatórios e devem ser enviados pelo SAP na emissão da Nota Fiscal (NF).
+🧑‍💼 PO: 
+Tiago Fogaça
+📊 Priorização:
+Prioridade: Alta
+Justificativa: Permite maior rastreabilidade e controle das informações de negociação e pedido nas ordens de serviço, atendendo a requisitos fiscais e operacionais.
+Impacto: Melhora a transparência e a conformidade dos dados transmitidos para a NF.
+Urgência: Demanda já alinhada entre as áreas envolvidas e necessária para padronização dos processos.
+Dependências: Exemplo de texto a ser encaminhado por ARAUJO DA SILVA, ANDREY e definição se a regra se aplica a material ou serviço.
+🔍 Processo atual (AS IS):
+Atualmente, o layout das RFCs ZV30 e ZV31 para ordens ZVSP e ZVPS não contempla os campos “Negociação” e “Pedido” nas posições finais da linha OC. O texto padrão da NFSe não inclui essas informações, o que pode dificultar o controle e rastreabilidade.
+🚀 Processo futuro (TO BE):
+O layout das RFCs será ajustado para incluir os campos “Negociação” e “Pedido” nas posições finais da linha OC, conforme especificado. O SAP enviará esses campos na emissão da NF, tornando a informação disponível no texto padrão da NFSe, conforme exemplo fornecido.
+🎯 Objetivo da mudança:
+Aumentar a rastreabilidade e a transparência das informações fiscais e operacionais, facilitando auditorias e o controle interno, além de atender requisitos legais e de negócio.
+✅ Critérios de aceitação (BDD):
+Dado que uma ordem ZVSP ou ZVPS está sendo processada,
+Quando o SAP emitir a NF,
+Então os campos “Negociação” e “Pedido” devem ser incluídos nas últimas posições da linha OC do layout das RFCs ZV30 e ZV31,
+E os campos devem conter até 8 dígitos cada,
+E não devem ser obrigatórios (podem ser enviados em branco caso não existam).
+🧪 Cenários de teste de validação:
+Emitir uma NF para uma ordem ZVSP/ZVPS com os campos “Negociação” e “Pedido” preenchidos e verificar se aparecem corretamente no layout e no texto padrão da NFSe.
+Emitir uma NF para uma ordem ZVSP/ZVPS sem os campos preenchidos e verificar se o layout aceita campos em branco sem erro.
+Validar que o texto padrão da NFSe inclui os campos conforme o novo modelo.
+❌ Cenários de teste de rejeição:
+Emitir uma NF sem os campos e o sistema rejeitar ou apresentar erro.
+Preencher os campos com mais de 8 dígitos e o sistema não bloquear ou retornar erro.
+Os campos não aparecerem no texto padrão da NFSe após a emissão.</t>
+  </si>
+  <si>
+    <t>🧾 Requisito definido:
+Criar um portal de log para erros retornados ao IRIS, acessível apenas por usuários autorizados. O portal deve permitir, a partir do número da sessão do IRIS e da mensagem genérica enviada, consultar o erro real ocorrido.
+🧑‍💼 PO: 
+Giovani Perotto Mesquita
+📊 Priorização:
+Prioridade: Alta
+Justificativa: Atende a requisitos de segurança identificados em Pentest, permitindo rastreabilidade e investigação de erros sem expor detalhes sensíveis ao usuário final.
+Impacto: Melhora a segurança, facilita auditorias e acelera a resolução de incidentes.
+Urgência: Demanda de compliance e segurança.
+Dependências: Integração com logs do IRIS, autenticação de usuários.
+🔍 Processo atual (AS IS):
+Atualmente, erros retornados ao IRIS são apresentados de forma genérica ao usuário, sem um mecanismo centralizado e seguro para consulta detalhada por parte da equipe autorizada.
+🚀 Processo futuro (TO BE):
+Com o novo portal, usuários autorizados poderão acessar, mediante login, um painel onde, informando o número da sessão do IRIS e a mensagem genérica, será possível consultar o erro real registrado no sistema.
+🎯 Objetivo da mudança:
+Garantir rastreabilidade e segurança no tratamento de erros, atendendo requisitos de Pentest e facilitando a investigação e correção de falhas.
+✅ Critérios de aceitação (BDD):
+Dado que um usuário autorizado acessa o portal de log,
+Quando informar o número da sessão do IRIS e a mensagem genérica,
+Então o sistema deve exibir o erro real correspondente,
+E o acesso deve ser restrito a usuários autenticados.
+🧪 Cenários de teste de validação:
+Usuário autorizado acessa o portal, informa dados válidos e visualiza o erro real.
+Tentativa de acesso por usuário não autorizado é bloqueada.
+Consulta por sessão inexistente retorna mensagem adequada de “erro não encontrado”.
+❌ Cenários de teste de rejeição:
+Usuário não autorizado consegue acessar o portal.
+Consulta retorna erro real para sessão inválida ou sem permissão.
+Portal exibe informações sensíveis sem autenticação.</t>
+  </si>
+  <si>
+    <t>🧾 Requisito definido:
+Ajustar a interface Z_RFC_MMCP21 para que seja possível receber e processar informações de endereço de remessa.
+🧑‍💼 PO: 
+Ronaldo (SAP)
+📊 Priorização:
+Prioridade: Alta
+Justificativa: Permite que o sistema trate corretamente os dados de remessa, garantindo que os pedidos sejam enviados para o endereço correto e reduzindo riscos de erros logísticos.
+Impacto: Melhora a eficiência operacional e a satisfação do cliente.
+Urgência: Demanda de apoio já registrada e necessária para continuidade dos processos.
+Dependências: Integração com sistemas que fornecem ou consomem o endereço de remessa.
+🔍 Processo atual (AS IS):
+Atualmente, a interface Z_RFC_MMCP21 não recebe informações de endereço de remessa, o que pode gerar necessidade de preenchimento manual ou retrabalho em etapas posteriores.
+🚀 Processo futuro (TO BE):
+A interface Z_RFC_MMCP21 será ajustada para receber automaticamente as informações de endereço de remessa, integrando esses dados ao fluxo do pedido e eliminando etapas manuais.
+🎯 Objetivo da mudança:
+Automatizar o recebimento do endereço de remessa, garantindo precisão, agilidade e redução de erros no processo logístico.
+✅ Critérios de aceitação (BDD):
+Dado que um pedido é processado pela interface Z_RFC_MMCP21,
+Quando houver informações de endereço de remessa,
+Então a interface deve receber e registrar corretamente esses dados,
+E os dados devem estar disponíveis para consulta e uso nos processos subsequentes.
+🧪 Cenários de teste de validação:
+Enviar um pedido com endereço de remessa e verificar se a interface recebe e armazena corretamente as informações.
+Consultar o pedido após o processamento e confirmar que o endereço de remessa está disponível e correto.
+Integrar com sistemas consumidores e garantir que o endereço de remessa é transmitido corretamente.
+❌ Cenários de teste de rejeição:
+Enviar um pedido sem endereço de remessa e verificar se o sistema trata adequadamente a ausência do dado (ex: alerta ou erro controlado).
+Enviar um endereço de remessa inválido e verificar se o sistema rejeita ou sinaliza o erro.
+Processar um pedido e o endereço de remessa não ser registrado, gerando inconsistência.</t>
+  </si>
+  <si>
+    <t>Boa tarde,
+Izabel / Fernando, conforme falado na reunião do Dossiê Técnico de 29/05/2024, precisamos de um novo campo na tabela ESTRUTURA;
+Sugerimos ESTRUTURA.ite-desctexto label Desc. Texto (Dossiê), caractere com 40 posições;
+A origem da informação é o TEXTO item do SAP oriundo inicialmente do ESALES - demonstração no arquivo anexo;
+Mostrar na tela de manutenção e exibição de estrutura quando o item for OBRA;
+Fica a cargo do projetista o preenchimento conforme padrão; ideal exigir o preenchimento;
+Encaminhar em SDT auxiliar à equipe do SAP que as telas de manutenção de obra (CS72, etc) tenham o campo de origem TEXTO ITEM para ser preenchido, evitando manutenção posterior no AIT;
+Dúvidas / detalhes favor nos contatar a qualquer tempo;
+Atc.,
+Rogério.</t>
   </si>
 </sst>
 </file>
@@ -442,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -499,6 +719,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -996,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,13 +1252,13 @@
         <v>31</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>0</v>
@@ -1074,27 +1297,27 @@
         <v>39</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>42</v>
@@ -1120,15 +1343,17 @@
         <v>557058:43e80a76-deba-4dd8-b64d-c7c8e99c6312</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="15"/>
@@ -1137,16 +1362,16 @@
     </row>
     <row r="3" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>42</v>
@@ -1172,32 +1397,35 @@
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="P3" s="17"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>42</v>
@@ -1223,29 +1451,32 @@
         <v>557058:004709f9-0a88-4979-a875-f58ca3985cf7</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>42</v>
@@ -1271,32 +1502,35 @@
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>42</v>
@@ -1322,32 +1556,35 @@
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>42</v>
@@ -1373,32 +1610,35 @@
         <v>557058:43e80a76-deba-4dd8-b64d-c7c8e99c6312</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="P7" s="24"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>42</v>
@@ -1424,18 +1664,21 @@
         <v>6245e14af6a26900695d5c1c</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/JIRA/Planilha Sprint - Stand-By.xlsx
+++ b/JIRA/Planilha Sprint - Stand-By.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEROTTOMESQUITAGIOVA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tke-my.sharepoint.com/personal/giovani_mesquita_tkelevator_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4FF47-512B-4259-97D5-5D789C3D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{D8B4FF47-512B-4259-97D5-5D789C3D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BB740B-4BB4-42D3-B90A-65816B6E1497}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>Tipo</t>
   </si>
@@ -530,6 +530,94 @@
 Dúvidas / detalhes favor nos contatar a qualquer tempo;
 Atc.,
 Rogério.</t>
+  </si>
+  <si>
+    <t>SCTASK0436795</t>
+  </si>
+  <si>
+    <t>ENS-7544</t>
+  </si>
+  <si>
+    <t>SCTASK0403502</t>
+  </si>
+  <si>
+    <t>[ON] - [Alteração de Programa] - Interface Cancelamento em Massa</t>
+  </si>
+  <si>
+    <t>1️⃣ Defined requirement:
+🔹 Implementar uma interface que envie o resultado do cancelamento em massa de propostas realizadas nas telas 2211D (ON), 321116 (MI) e 331H (MP) do GUS para o E-Sales, garantindo que ambos os sistemas mantenham o mesmo status das propostas, similar ao que já ocorre nas telas 2211E, 22112 e 22114.
+2️⃣ Contact:
+👤 Andressa, analista do DIVN.
+3️⃣ Prioritization:
+⭐ Prioridade: Alta
+⭐ Justificativa: A ausência da interface causa divergência de status entre GUS e E-Sales, podendo gerar retrabalho, inconsistências e impacto negativo no atendimento ao cliente.
+⭐ Impacto: Garante integridade e sincronização dos dados entre sistemas.
+⭐ Urgência: Problema recorrente já identificado pela área de negócio.
+⭐ Dependências: Conhecimento das integrações atuais e validação com o time de E-Sales.
+4️⃣ Current process (AS IS):
+🔄 Hoje, ao cancelar propostas em massa nas telas 2211D, 321116 e 331H do GUS, não é gerada interface para o E-Sales, resultando em status diferentes entre os sistemas.
+5️⃣ Future process (TO BE):
+🚀 Após a implementação, ao cancelar propostas em massa nessas telas, a interface enviará automaticamente o resultado para o E-Sales, garantindo que o status das propostas seja atualizado e sincronizado em ambos os sistemas.
+6️⃣ Objective of the change:
+🎯 Eliminar divergências de status entre GUS e E-Sales, garantindo integridade, rastreabilidade e eficiência operacional.
+7️⃣ Acceptance criteria (BDD):
+✅ Dado que um usuário realiza o cancelamento em massa de propostas nas telas 2211D, 321116 ou 331H do GUS,
+Quando o cancelamento for concluído,
+Então a interface deve enviar o resultado para o E-Sales,
+E o status das propostas deve ser atualizado corretamente em ambos os sistemas.
+✅ Dado que a interface de envio de resultado está ativa,
+Quando houver falha na comunicação,
+Então o sistema deve registrar o erro e informar o usuário responsável.
+8️⃣ Validation test scenarios:
+🔬 Realizar cancelamento em massa nas telas 2211D, 321116 e 331H e verificar se o status das propostas é atualizado corretamente no E-Sales.
+🔬 Simular falha de comunicação e garantir que o erro é registrado e comunicado ao usuário.
+🔬 Comparar o status das propostas nos dois sistemas após o cancelamento para garantir sincronização.
+🔬 Realizar cancelamento em massa nas telas já integradas (2211E, 22112, 22114) para garantir que o novo desenvolvimento não impactou o funcionamento existente.
+9️⃣ Rejection test scenarios:
+❌ Cancelar propostas em massa e o status não ser atualizado no E-Sales.
+❌ O sistema não registrar ou comunicar falhas de integração.
+❌ Divergência de status entre GUS e E-Sales após o processo.
+❌ Impacto negativo no funcionamento das integrações já existentes.</t>
+  </si>
+  <si>
+    <t>Apoio para teste integrado GUS/SAP/IRIS</t>
+  </si>
+  <si>
+    <t>1️⃣ Requisito definido:
+Solicitar apoio de 1 hora para realizar testes em conjunto com o time 2 do GUS. [SCTASK0436795]
+2️⃣ Contato:
+👤 Não há pessoa específica mencionada no requisito. Recomenda-se alinhar com o responsável pelo time 2 do GUS.
+3️⃣ Priorização:
+⭐ Prioridade: Média
+⭐ Justificativa: A realização de testes conjuntos é fundamental para validar integrações, identificar possíveis falhas e garantir a qualidade das entregas.
+⭐ Impacto: Melhora a comunicação entre times, reduz retrabalho e aumenta a confiabilidade do sistema.
+⭐ Urgência: Apoio pontual, necessário para o andamento de uma etapa específica do projeto.
+⭐ Dependências: Disponibilidade do time 2 do GUS e alinhamento prévio de agenda.
+4️⃣ Processo atual (AS IS):
+🔄 Atualmente, não há apoio formalizado para a realização de testes conjuntos entre os times, o que pode gerar atrasos ou dificuldades na validação de funcionalidades.
+5️⃣ Processo futuro (TO BE):
+🚀 Com o apoio solicitado, será possível realizar testes em conjunto de forma coordenada, garantindo que ambos os times estejam alinhados e que os resultados dos testes sejam compartilhados em tempo real.
+6️⃣ Objetivo da mudança:
+🎯 Garantir a validação eficiente das funcionalidades desenvolvidas, promovendo integração entre os times e aumentando a qualidade das entregas.
+7️⃣ Critérios de aceitação (BDD):
+✅ Dado que o apoio de 1 hora foi agendado,
+Quando os times iniciarem os testes conjuntos,
+Então todos os cenários planejados devem ser executados,
+E eventuais falhas ou dúvidas devem ser registradas para acompanhamento.
+8️⃣ Cenários de teste de validação:
+🔬 Agendar e realizar a sessão de 1 hora de testes conjuntos, garantindo a participação dos membros necessários dos dois times.
+🔬 Executar todos os cenários de teste previstos e registrar os resultados.
+🔬 Compartilhar os aprendizados e pontos de melhoria identificados durante a sessão.
+9️⃣ Cenários de teste de rejeição:
+❌ O apoio não é realizado no tempo previsto, prejudicando o andamento do projeto.
+❌ Nem todos os cenários de teste são executados ou documentados.
+❌ Falhas identificadas não são registradas ou comunicadas aos responsáveis.</t>
+  </si>
+  <si>
+    <t>REQ0300353</t>
+  </si>
+  <si>
+    <t>REQ0275361</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1715,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
@@ -1679,6 +1767,111 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="19" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$H9,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J9,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>6245e14af6a26900695d5c1c</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$H10,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J10,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>6245e14af6a26900695d5c1c</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1691,9 +1884,11 @@
     <hyperlink ref="G6" r:id="rId5" xr:uid="{A8EA3B4E-4E00-42BB-9892-D2045B5B6A1C}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{03F24A47-4291-4506-952E-E94F136E8D6F}"/>
     <hyperlink ref="G8" r:id="rId7" xr:uid="{22801644-FBFA-4B14-843A-872C1109FB82}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{9566CD49-5A80-40A7-B56C-990262AB03B5}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{5939B978-C740-4861-AF41-3A403E7A866F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1701,19 +1896,19 @@
           <x14:formula1>
             <xm:f>Parâmetros!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F8</xm:sqref>
+          <xm:sqref>F2:F10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14264A23-AFCA-478E-940E-5781B482AE85}">
           <x14:formula1>
             <xm:f>Parâmetros!$F$3:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J8 H2:H8</xm:sqref>
+          <xm:sqref>H2:H10 J2:J10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C88543BB-7C23-49E2-B665-476ACB3E0DC3}">
           <x14:formula1>
             <xm:f>Parâmetros!$D$3:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O8</xm:sqref>
+          <xm:sqref>O2:O10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/JIRA/Planilha Sprint - Stand-By.xlsx
+++ b/JIRA/Planilha Sprint - Stand-By.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tke-my.sharepoint.com/personal/giovani_mesquita_tkelevator_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{D8B4FF47-512B-4259-97D5-5D789C3D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BB740B-4BB4-42D3-B90A-65816B6E1497}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{D8B4FF47-512B-4259-97D5-5D789C3D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80AA5837-F99A-40DE-B7EA-D52DCEDB9197}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
   <si>
     <t>Tipo</t>
   </si>
@@ -618,6 +618,71 @@
   </si>
   <si>
     <t>REQ0275361</t>
+  </si>
+  <si>
+    <t>SCTASK0536420</t>
+  </si>
+  <si>
+    <t>REQ0363031</t>
+  </si>
+  <si>
+    <t>Melhoria para validação no Painel Geral - TDC</t>
+  </si>
+  <si>
+    <t>Requisito uma melhoria para a validação do AIT sobre a geração de obras e o aspecto visual resultante na página "Gestão de Manufatura » Engenharia » Technical Data Center (TDC) » Painel Geral", quanto a obras no NxTDC.
+O sistema do NxTDC envia como resposta para os pedidos de configuração de obra uma mensagem com o seguinte formato:
+{
+	"status": "string",
+	"report": "string",
+	"message": "string"
+}
+Onde:
+status: Status da operação pela chamada da API
+report: o JCoB report
+message: uma mensagem curta textual sobre os passos internos de execução
+Este "status" pode vir om 3 valores: 
+"InProgress": pedido ainda em andamento
+"Success": pedido completo com sucesso
+"Failed": pedido falhou
+Quando a resposta chega com o status em "Success", significa que a obra foi gerada sem problemas, e sem apresentar erros em sua compilação. Sugere-se que o AIT passe a verificar esta resposta em seu estado final e marcar com o símbolo "V" os pedidos que retornarem com o status "Success", e marcar com o símbolo "X" os pedidos que retornarem com o status "Failed".</t>
+  </si>
+  <si>
+    <t>1️⃣ Requisito definido
+🔹 O sistema IRIS deve incluir o status do processamento no nome do arquivo jobReport.xml gerado pela interface NxTDC, conforme disponibilizado pela API do NxTDC, seguindo o padrão:
+&lt;nome&gt;_&lt;status&gt;.xml
+Exemplos:
+JobReport_Success.xml
+JobReport_Fail.xml
+JobReport.xml (sem status, caso não informado)
+2️⃣ Contato
+👤 Izabel (PO)
+3️⃣ Priorização
+⭐ Justificativa:
+Atende solicitação da área de negócio para facilitar a identificação do status do processamento diretamente pelo nome do arquivo.
+Reduz riscos de erros operacionais e agiliza o diagnóstico de falhas.
+Prioridade: Alta (impacto direto na eficiência operacional e na experiência do usuário interno).
+4️⃣ Processo atual (AS IS)
+🔄 O IRIS chama o AIT via interface TDC.LIBPROD, o AIT gera arquivos XML, e o IRIS busca o jobReport.xml via interface NxTDC. O arquivo é disponibilizado em uma pasta, mas o nome não indica o status do processamento, embora o status esteja disponível via API do NxTDC e não seja utilizado.
+5️⃣ Processo futuro (TO BE)
+🚀 O IRIS continuará buscando o jobReport.xml via interface NxTDC, mas agora o nome do arquivo incluirá o status do processamento, conforme retornado pela API do NxTDC. O AIT localizará o arquivo já com o status explícito no nome, facilitando o tratamento automatizado.
+6️⃣ Objetivo da mudança
+🎯 Permitir a identificação imediata do status do processamento pelo nome do arquivo, otimizando o fluxo operacional, reduzindo erros e acelerando a resolução de problemas.
+7️⃣ Critérios de aceitação (BDD)
+✅ Dado que o IRIS processa um job via NxTDC
+Quando o arquivo jobReport.xml for gerado
+Então o nome do arquivo deve conter o status do processamento, conforme padrão &lt;nome&gt;_&lt;status&gt;.xml, utilizando o status fornecido pela API do NxTDC.
+8️⃣ Cenários de teste de validação
+🟢
+Gerar um job com sucesso → arquivo salvo como JobReport_Success.xml.
+Gerar um job com erro → arquivo salvo como JobReport_Fail.xml.
+Gerar um job sem status disponível → arquivo salvo como JobReport.xml (sem sufixo de status).
+Validar que o AIT consegue localizar e processar corretamente os arquivos com o novo padrão de nomenclatura.
+9️⃣ Cenários de teste de rejeição
+🔴
+Gerar um job e o arquivo ser salvo sem o status, mesmo com o status disponível na API.
+O arquivo ser salvo com um status incorreto ou diferente do retornado pela API.
+O AIT não conseguir localizar ou processar o arquivo devido à alteração no nome.
+O SAP ser impactado pela mudança (não deve ocorrer).</t>
   </si>
 </sst>
 </file>
@@ -750,7 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -810,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1305,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1440,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="18"/>
@@ -1820,7 +1888,7 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -1872,6 +1940,55 @@
       <c r="Q10" s="18"/>
       <c r="R10" s="19" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$H11,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J11,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>557058:004709f9-0a88-4979-a875-f58ca3985cf7</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1886,9 +2003,10 @@
     <hyperlink ref="G8" r:id="rId7" xr:uid="{22801644-FBFA-4B14-843A-872C1109FB82}"/>
     <hyperlink ref="G9" r:id="rId8" xr:uid="{9566CD49-5A80-40A7-B56C-990262AB03B5}"/>
     <hyperlink ref="G10" r:id="rId9" xr:uid="{5939B978-C740-4861-AF41-3A403E7A866F}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{537A1BE8-5E84-4DB2-9EA8-4DA076F0BA6E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1896,19 +2014,19 @@
           <x14:formula1>
             <xm:f>Parâmetros!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F10</xm:sqref>
+          <xm:sqref>F2:F11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14264A23-AFCA-478E-940E-5781B482AE85}">
           <x14:formula1>
             <xm:f>Parâmetros!$F$3:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H10 J2:J10</xm:sqref>
+          <xm:sqref>H2:H11 J2:J11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C88543BB-7C23-49E2-B665-476ACB3E0DC3}">
           <x14:formula1>
             <xm:f>Parâmetros!$D$3:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O10</xm:sqref>
+          <xm:sqref>O2:O11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/JIRA/Planilha Sprint - Stand-By.xlsx
+++ b/JIRA/Planilha Sprint - Stand-By.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tke-my.sharepoint.com/personal/giovani_mesquita_tkelevator_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tke-my.sharepoint.com/personal/giovani_mesquita_tkelevator_com/Documents/Documents/jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{D8B4FF47-512B-4259-97D5-5D789C3D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D51A3A31-FA93-4687-B3FD-4C9BCD2F605C}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{D8B4FF47-512B-4259-97D5-5D789C3D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF49687-A040-497E-9AC4-3C0022B6D826}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
     <sheet name="Parâmetros" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
   <si>
     <t>Tipo</t>
   </si>
@@ -627,24 +627,6 @@
   </si>
   <si>
     <t>Melhoria para validação no Painel Geral - TDC</t>
-  </si>
-  <si>
-    <t>Requisito uma melhoria para a validação do AIT sobre a geração de obras e o aspecto visual resultante na página "Gestão de Manufatura » Engenharia » Technical Data Center (TDC) » Painel Geral", quanto a obras no NxTDC.
-O sistema do NxTDC envia como resposta para os pedidos de configuração de obra uma mensagem com o seguinte formato:
-{
-	"status": "string",
-	"report": "string",
-	"message": "string"
-}
-Onde:
-status: Status da operação pela chamada da API
-report: o JCoB report
-message: uma mensagem curta textual sobre os passos internos de execução
-Este "status" pode vir om 3 valores: 
-"InProgress": pedido ainda em andamento
-"Success": pedido completo com sucesso
-"Failed": pedido falhou
-Quando a resposta chega com o status em "Success", significa que a obra foi gerada sem problemas, e sem apresentar erros em sua compilação. Sugere-se que o AIT passe a verificar esta resposta em seu estado final e marcar com o símbolo "V" os pedidos que retornarem com o status "Success", e marcar com o símbolo "X" os pedidos que retornarem com o status "Failed".</t>
   </si>
   <si>
     <t xml:space="preserve">🧾 Requisito Definido
@@ -713,6 +695,45 @@
 o	Passos: Executar o fluxo de Sucesso (gerando JobReport_Success.xml). Verificar o comportamento do sistema AIT (consumidor).
 o	Esperado: (Alerta de Dependência para o PO) O AIT precisa estar preparado para ler os novos nomes de arquivo. Se o AIT ainda estiver procurando exclusivamente por jobReport.xml, o fluxo dele irá falhar. Esta entrega precisa ser coordenada com o time do AIT.
 </t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Otimizar o código responsável pela confirmação de leitura na tabela ZInterfaceLote2 do SAP, reduzindo o tempo de processamento e melhorando a performance da transação.</t>
+  </si>
+  <si>
+    <t>Adaptar o layout da interface ZV48N para permitir o envio do campo que indica se o pedido realizado na loja WEB da TK é de Revenda ou Consumo.</t>
+  </si>
+  <si>
+    <t>Adicionar um novo campo chamado "Desc. Texto (Dossiê)" (caractere, 40 posições) na tabela ESTRUTURA, com origem no campo TEXTO ITEM do SAP (proveniente do ESALES). O campo deve ser exibido e editável nas telas de manutenção e exibição de estrutura quando o item for do tipo OBRA. O preenchimento deve ser realizado pelo projetista, conforme padrão, e idealmente ser obrigatório.</t>
+  </si>
+  <si>
+    <t>Configurar uma interface automatizada para envio de arquivos do servidor SRVFLS01 para a biblioteca SharePoint “CONTRATO_CSC” (https://tke.sharepoint.com/sites/BRA-Filerep01/GUS/), sincronizando apenas arquivos novos a cada 5 minutos, sem mover os arquivos históricos existentes.</t>
+  </si>
+  <si>
+    <t>Ajustar o layout das RFCs ZV30 e ZV31 para os tipos de Ordens ZVSP e ZVPS, incluindo os campos “Negociação” (8 dígitos, penúltima posição) e “Pedido” (8 dígitos, última posição) nas últimas posições da linha OC. Estes campos não são obrigatórios e devem ser enviados pelo SAP na emissão da Nota Fiscal (NF).</t>
+  </si>
+  <si>
+    <t>Criar um portal de log para erros retornados ao IRIS, acessível apenas por usuários autorizados. O portal deve permitir, a partir do número da sessão do IRIS e da mensagem genérica enviada, consultar o erro real ocorrido.</t>
+  </si>
+  <si>
+    <t>Ajustar a interface Z_RFC_MMCP21 para que seja possível receber e processar informações de endereço de remessa.</t>
+  </si>
+  <si>
+    <t>Implementar uma interface que envie o resultado do cancelamento em massa de propostas realizadas nas telas 2211D (ON), 321116 (MI) e 331H (MP) do GUS para o E-Sales, garantindo que ambos os sistemas mantenham o mesmo status das propostas, similar ao que já ocorre nas telas 2211E, 22112 e 22114.</t>
+  </si>
+  <si>
+    <t>Solicitar apoio de 1 hora para realizar testes em conjunto com o time 2 do GUS.</t>
+  </si>
+  <si>
+    <t>O sistema IRIS deve capturar o campo de status que já é disponibilizado pela API do software NxTDC durante a chamada de interface. Este status deve ser usado para formatar o nome final do arquivo jobReport.xml antes de disponibilizá-lo na pasta para o sistema AIT.</t>
   </si>
 </sst>
 </file>
@@ -845,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -908,6 +929,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,22 +1439,24 @@
     <col min="2" max="2" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="33.77734375" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="33.77734375" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.77734375" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -1444,55 +1470,64 @@
         <v>46</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1505,48 +1540,53 @@
       <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H2,Tabela9[Pessoas],Tabela9[UUID])</f>
-        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$J2,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L2,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:43e80a76-deba-4dd8-b64d-c7c8e99c6312</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="O2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -1559,48 +1599,53 @@
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H3,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K3" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J3,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J3,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M3" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L3,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>54</v>
       </c>
       <c r="O3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
@@ -1613,45 +1658,50 @@
       <c r="D4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H4,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K4" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J4,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J4,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M4" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L4,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:004709f9-0a88-4979-a875-f58ca3985cf7</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>84</v>
       </c>
       <c r="O4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="18"/>
+      <c r="R4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -1664,48 +1714,53 @@
       <c r="D5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="I5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H5,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K5" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J5,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="L5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J5,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M5" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L5,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>61</v>
       </c>
       <c r="O5" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="24"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -1718,48 +1773,53 @@
       <c r="D6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="I6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H6,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K6" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J6,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J6,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M6" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L6,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>64</v>
       </c>
       <c r="O6" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1772,48 +1832,53 @@
       <c r="D7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="I7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H7,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K7" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J7,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J7,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M7" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L7,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:43e80a76-deba-4dd8-b64d-c7c8e99c6312</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="N7" s="19" t="s">
         <v>67</v>
       </c>
       <c r="O7" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
@@ -1826,48 +1891,53 @@
       <c r="D8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="I8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H8,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K8" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J8,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J8,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M8" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L8,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>6245e14af6a26900695d5c1c</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>70</v>
       </c>
       <c r="O8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1880,45 +1950,50 @@
       <c r="D9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="I9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H9,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K9" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J9,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="L9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J9,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M9" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L9,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>6245e14af6a26900695d5c1c</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="N9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="O9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="18"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -1931,48 +2006,53 @@
       <c r="D10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H10,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K10" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J10,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J10,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M10" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L10,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>6245e14af6a26900695d5c1c</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>90</v>
       </c>
       <c r="O10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>52</v>
       </c>
@@ -1985,55 +2065,58 @@
       <c r="D11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="I11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="19" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H11,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K11" s="19" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J11,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="L11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="15" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J11,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M11" s="15" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L11,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:004709f9-0a88-4979-a875-f58ca3985cf7</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="N11" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="26" t="s">
+      <c r="O11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}"/>
+  <autoFilter ref="A1:W1" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{A8AAB5D3-10B8-4F4B-88DD-A77DA1AF37F6}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{FC068C17-B434-49DC-A456-8AE1F428DB4C}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{67C4B36C-B0BB-4A6E-B151-4A244C2D143A}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{A36E4F76-8E2B-446C-9028-1D827499BBF3}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{A8EA3B4E-4E00-42BB-9892-D2045B5B6A1C}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{03F24A47-4291-4506-952E-E94F136E8D6F}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{22801644-FBFA-4B14-843A-872C1109FB82}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{9566CD49-5A80-40A7-B56C-990262AB03B5}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{5939B978-C740-4861-AF41-3A403E7A866F}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{537A1BE8-5E84-4DB2-9EA8-4DA076F0BA6E}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{A8AAB5D3-10B8-4F4B-88DD-A77DA1AF37F6}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{FC068C17-B434-49DC-A456-8AE1F428DB4C}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{67C4B36C-B0BB-4A6E-B151-4A244C2D143A}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{A36E4F76-8E2B-446C-9028-1D827499BBF3}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{A8EA3B4E-4E00-42BB-9892-D2045B5B6A1C}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{03F24A47-4291-4506-952E-E94F136E8D6F}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{22801644-FBFA-4B14-843A-872C1109FB82}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{9566CD49-5A80-40A7-B56C-990262AB03B5}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{5939B978-C740-4861-AF41-3A403E7A866F}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{537A1BE8-5E84-4DB2-9EA8-4DA076F0BA6E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -2044,19 +2127,19 @@
           <x14:formula1>
             <xm:f>Parâmetros!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F11</xm:sqref>
+          <xm:sqref>H2:H11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14264A23-AFCA-478E-940E-5781B482AE85}">
           <x14:formula1>
             <xm:f>Parâmetros!$F$3:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H11 J2:J11</xm:sqref>
+          <xm:sqref>J2:J11 L2:L11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C88543BB-7C23-49E2-B665-476ACB3E0DC3}">
           <x14:formula1>
             <xm:f>Parâmetros!$D$3:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O11</xm:sqref>
+          <xm:sqref>Q2:Q11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
